--- a/datasets/palavras_chave_esg.xlsx
+++ b/datasets/palavras_chave_esg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielsaraivaleite/TCC/Codigo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielsaraivaleite/TCC/Codigo/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AB63AE-1D8A-984C-9DE4-0755B4FAF8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795638E9-731F-A645-94A3-54F58E5B655E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{9696DD06-7E27-1044-95AF-4D7C4710192F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>E</t>
   </si>
@@ -336,9 +336,6 @@
     <t>Filantropia</t>
   </si>
   <si>
-    <t>Segurança de Dados</t>
-  </si>
-  <si>
     <t>Vazamento dados</t>
   </si>
   <si>
@@ -346,6 +343,36 @@
   </si>
   <si>
     <t>Segurança Dados</t>
+  </si>
+  <si>
+    <t>Violência</t>
+  </si>
+  <si>
+    <t>Incidente cibernético</t>
+  </si>
+  <si>
+    <t>Erros contábeis</t>
+  </si>
+  <si>
+    <t>Equidade salarial</t>
+  </si>
+  <si>
+    <t>Equidade gênero</t>
+  </si>
+  <si>
+    <t>Auditoria</t>
+  </si>
+  <si>
+    <t>Crédito verde</t>
+  </si>
+  <si>
+    <t>Hidrogênio verde</t>
+  </si>
+  <si>
+    <t>Transgêneros</t>
+  </si>
+  <si>
+    <t>Intolerância</t>
   </si>
 </sst>
 </file>
@@ -708,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F21AF48-96F3-3D46-821B-9B27FF9A764E}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -773,7 +800,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -784,7 +811,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -795,7 +822,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -806,7 +833,7 @@
         <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -817,307 +844,340 @@
         <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>114</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>57</v>
+      </c>
+      <c r="B35" t="s">
+        <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>43</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
-        <v>104</v>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
